--- a/Tutorial/output_mean_median_std.xlsx
+++ b/Tutorial/output_mean_median_std.xlsx
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9819713393857122</v>
+        <v>0.9814256068545408</v>
       </c>
       <c r="C2">
-        <v>0.01969373850123592</v>
+        <v>0.02037564082733398</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.538357405349289E-05</v>
+        <v>2.894984581864985E-05</v>
       </c>
       <c r="G2">
-        <v>0.0007974069534038217</v>
+        <v>0.0007327880972267308</v>
       </c>
       <c r="H2">
-        <v>0.7982514934657354</v>
+        <v>0.8669316888332891</v>
       </c>
       <c r="I2">
-        <v>0.7080076156000813</v>
+        <v>0.828606031448942</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -478,10 +478,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9807946223252058</v>
+        <v>0.9816454611219864</v>
       </c>
       <c r="C3">
-        <v>0.02054123954324993</v>
+        <v>0.02095020677228275</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007235045968336987</v>
+        <v>0.0005560259251475059</v>
       </c>
       <c r="H3">
-        <v>0.7972247771186641</v>
+        <v>0.8740291961135238</v>
       </c>
       <c r="I3">
-        <v>0.6355674841183012</v>
+        <v>0.7640951780456287</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -507,10 +507,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0103768699577966</v>
+        <v>0.009122985215168718</v>
       </c>
       <c r="C4">
-        <v>0.006834699889063326</v>
+        <v>0.007052889317847059</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.000422436259361413</v>
+        <v>0.0001862738051486507</v>
       </c>
       <c r="G4">
-        <v>0.0007496715455034815</v>
+        <v>0.0007359415491892039</v>
       </c>
       <c r="H4">
-        <v>0.2674272652551015</v>
+        <v>0.2789509177086688</v>
       </c>
       <c r="I4">
-        <v>0.4647409135166922</v>
+        <v>0.5168268631979928</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9509812649473419</v>
+        <v>0.9519335829232176</v>
       </c>
       <c r="C2">
-        <v>0.04716200154188011</v>
+        <v>0.04722781054838524</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -587,16 +587,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9.044803486370543E-06</v>
       </c>
       <c r="G2">
-        <v>0.002166105753566294</v>
+        <v>0.002062058155030329</v>
       </c>
       <c r="H2">
-        <v>0.9823842122243033</v>
+        <v>0.9700952405930579</v>
       </c>
       <c r="I2">
-        <v>1.006863403256272</v>
+        <v>0.977771433484216</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9509224492698639</v>
+        <v>0.9515338296679572</v>
       </c>
       <c r="C3">
-        <v>0.04666064848851077</v>
+        <v>0.04774074075624384</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002135640003732901</v>
+        <v>0.001983594105641994</v>
       </c>
       <c r="H3">
-        <v>0.9913777713241132</v>
+        <v>0.9846902192729042</v>
       </c>
       <c r="I3">
-        <v>0.9828524846060338</v>
+        <v>0.9697234552452506</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -633,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01062247714447372</v>
+        <v>0.00849116981028796</v>
       </c>
       <c r="C4">
-        <v>0.004776175547087968</v>
+        <v>0.004214970455663538</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -645,16 +645,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9.044803486370544E-05</v>
       </c>
       <c r="G4">
-        <v>0.001003757577954254</v>
+        <v>0.0009611648190077948</v>
       </c>
       <c r="H4">
-        <v>0.2054427660688188</v>
+        <v>0.1925025453404144</v>
       </c>
       <c r="I4">
-        <v>0.4172010604325375</v>
+        <v>0.3744418618433318</v>
       </c>
     </row>
   </sheetData>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9215048525101802</v>
+        <v>0.9207340368896284</v>
       </c>
       <c r="C2">
-        <v>0.07456434129525909</v>
+        <v>0.07512987017753894</v>
       </c>
       <c r="D2">
-        <v>0.0007562630915627761</v>
+        <v>0.00074792660403031</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0005357761818090919</v>
+        <v>0.0003920195816258718</v>
       </c>
       <c r="G2">
-        <v>0.002076925224861979</v>
+        <v>0.002171889800020289</v>
       </c>
       <c r="H2">
-        <v>0.603395128971706</v>
+        <v>0.5928095289185461</v>
       </c>
       <c r="I2">
-        <v>0.4321565345062356</v>
+        <v>0.41278961155491</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -730,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9215166894206026</v>
+        <v>0.9203572027830597</v>
       </c>
       <c r="C3">
-        <v>0.07452733941882621</v>
+        <v>0.07525074337566337</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002138684107621006</v>
+        <v>0.002015853352309783</v>
       </c>
       <c r="H3">
-        <v>0.5502216101265067</v>
+        <v>0.5431766797425888</v>
       </c>
       <c r="I3">
-        <v>0.302746638826775</v>
+        <v>0.2950452128239592</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -759,28 +759,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.007357474026192577</v>
+        <v>0.006622895486237834</v>
       </c>
       <c r="C4">
-        <v>0.003970539890348608</v>
+        <v>0.003835371700287243</v>
       </c>
       <c r="D4">
-        <v>0.001383606607329223</v>
+        <v>0.001351513491263139</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001507303223240471</v>
+        <v>0.001195574802316088</v>
       </c>
       <c r="G4">
-        <v>0.001380622521901133</v>
+        <v>0.001311924831336019</v>
       </c>
       <c r="H4">
-        <v>0.2622183006801193</v>
+        <v>0.2489705551903668</v>
       </c>
       <c r="I4">
-        <v>0.3580026748966779</v>
+        <v>0.3392639761070101</v>
       </c>
     </row>
   </sheetData>
@@ -827,28 +827,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8913231186110958</v>
+        <v>0.8922733409512236</v>
       </c>
       <c r="C2">
-        <v>0.0981080106598592</v>
+        <v>0.09703477840613781</v>
       </c>
       <c r="D2">
-        <v>0.0002001406215910399</v>
+        <v>0.0002650908397375779</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>9.630877577865567E-05</v>
+        <v>0.0001685457441108868</v>
       </c>
       <c r="G2">
-        <v>0.006981099950714273</v>
+        <v>0.006996504036428009</v>
       </c>
       <c r="H2">
-        <v>0.6382165749025855</v>
+        <v>0.6163383051956144</v>
       </c>
       <c r="I2">
-        <v>0.4434770978823617</v>
+        <v>0.4065193169441326</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8918895474037796</v>
+        <v>0.8918338527180896</v>
       </c>
       <c r="C3">
-        <v>0.09786051471258093</v>
+        <v>0.09658935790340381</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.006958311648223033</v>
+        <v>0.006994272014129785</v>
       </c>
       <c r="H3">
-        <v>0.6230288642044454</v>
+        <v>0.5915203860583621</v>
       </c>
       <c r="I3">
-        <v>0.3881696548263209</v>
+        <v>0.3499030426638833</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -885,28 +885,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.005986236060285812</v>
+        <v>0.006438249034691764</v>
       </c>
       <c r="C4">
-        <v>0.004945732629295015</v>
+        <v>0.005654329517007765</v>
       </c>
       <c r="D4">
-        <v>0.0007936638052221787</v>
+        <v>0.0007673763603263047</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.000492273778073926</v>
+        <v>0.0007658468323471529</v>
       </c>
       <c r="G4">
-        <v>0.0006978089969356378</v>
+        <v>0.0006776523377483314</v>
       </c>
       <c r="H4">
-        <v>0.1911070919878561</v>
+        <v>0.1640596420643207</v>
       </c>
       <c r="I4">
-        <v>0.2571425802125854</v>
+        <v>0.2237589563932612</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8765312520208414</v>
+        <v>0.8768053015638786</v>
       </c>
       <c r="C2">
-        <v>0.1241662593373578</v>
+        <v>0.1241961408972401</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.758741442685832E-05</v>
+        <v>3.209374850791939E-05</v>
       </c>
       <c r="G2">
-        <v>0.001641638845452248</v>
+        <v>0.001657601739845988</v>
       </c>
       <c r="H2">
-        <v>0.702652907379854</v>
+        <v>0.6930521586792894</v>
       </c>
       <c r="I2">
-        <v>0.5396548685561879</v>
+        <v>0.5340371414643803</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8762376349425685</v>
+        <v>0.8766247054863139</v>
       </c>
       <c r="C3">
-        <v>0.1235361346686843</v>
+        <v>0.1240456258598715</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001695512514725851</v>
+        <v>0.001501949311045181</v>
       </c>
       <c r="H3">
-        <v>0.7016745098287892</v>
+        <v>0.7105657892506592</v>
       </c>
       <c r="I3">
-        <v>0.4923476990058511</v>
+        <v>0.5049328293375215</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.007080367116455107</v>
+        <v>0.007519294623191985</v>
       </c>
       <c r="C4">
-        <v>0.005192676988469047</v>
+        <v>0.005311121755513508</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001377821431017161</v>
+        <v>0.0001941259808134911</v>
       </c>
       <c r="G4">
-        <v>0.001015157901927273</v>
+        <v>0.001037626764758319</v>
       </c>
       <c r="H4">
-        <v>0.2154013409514043</v>
+        <v>0.2329343923202701</v>
       </c>
       <c r="I4">
-        <v>0.3194568869512718</v>
+        <v>0.340136062405136</v>
       </c>
     </row>
   </sheetData>
@@ -1079,28 +1079,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8053366372862324</v>
+        <v>0.8048303864260328</v>
       </c>
       <c r="C2">
-        <v>0.1604477790965781</v>
+        <v>0.1592480088101831</v>
       </c>
       <c r="D2">
-        <v>0.001184361800382446</v>
+        <v>0.001054051286555418</v>
       </c>
       <c r="E2">
-        <v>0.02880469547792421</v>
+        <v>0.03099508347092304</v>
       </c>
       <c r="F2">
-        <v>0.0001956831158260035</v>
+        <v>0.0002131931193726142</v>
       </c>
       <c r="G2">
-        <v>0.002105723011133375</v>
+        <v>0.001890189342973226</v>
       </c>
       <c r="H2">
-        <v>0.5383636855548979</v>
+        <v>0.5211876099501517</v>
       </c>
       <c r="I2">
-        <v>0.3370632309669364</v>
+        <v>0.3245648426302993</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1108,28 +1108,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8039801786634591</v>
+        <v>0.8040975843076253</v>
       </c>
       <c r="C3">
-        <v>0.1600997430404319</v>
+        <v>0.158988156523001</v>
       </c>
       <c r="D3">
-        <v>0.0007343594230031907</v>
+        <v>0.0004727025232907442</v>
       </c>
       <c r="E3">
-        <v>0.0301504729257835</v>
+        <v>0.03055120525083257</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002106555280820416</v>
+        <v>0.001915718419110701</v>
       </c>
       <c r="H3">
-        <v>0.5231683146336576</v>
+        <v>0.4769681386227954</v>
       </c>
       <c r="I3">
-        <v>0.2737059067144133</v>
+        <v>0.2274986639058531</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1137,28 +1137,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01417300662711496</v>
+        <v>0.0139038621029296</v>
       </c>
       <c r="C4">
-        <v>0.006274067566983047</v>
+        <v>0.006349713970747919</v>
       </c>
       <c r="D4">
-        <v>0.001349654844027742</v>
+        <v>0.001341327942657238</v>
       </c>
       <c r="E4">
-        <v>0.01373720567571603</v>
+        <v>0.01357929552308659</v>
       </c>
       <c r="F4">
-        <v>0.0005818687221130975</v>
+        <v>0.0007289618492255665</v>
       </c>
       <c r="G4">
-        <v>0.000620800256917237</v>
+        <v>0.0006845953904104616</v>
       </c>
       <c r="H4">
-        <v>0.218414333905162</v>
+        <v>0.231220559938188</v>
       </c>
       <c r="I4">
-        <v>0.2592752516029941</v>
+        <v>0.2983057458432366</v>
       </c>
     </row>
   </sheetData>
@@ -1205,28 +1205,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7238852671498575</v>
+        <v>0.7205577820292421</v>
       </c>
       <c r="C2">
-        <v>0.1685139726824957</v>
+        <v>0.1674384218005671</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1035916502829141</v>
+        <v>0.1084065263899319</v>
       </c>
       <c r="F2">
-        <v>0.0001705820344220194</v>
+        <v>0.0001262074851087313</v>
       </c>
       <c r="G2">
-        <v>0.001559163144361944</v>
+        <v>0.001558304794327532</v>
       </c>
       <c r="H2">
-        <v>0.6159497910734144</v>
+        <v>0.6174629937414394</v>
       </c>
       <c r="I2">
-        <v>0.423346737775619</v>
+        <v>0.4262762397926824</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1234,28 +1234,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7223389835239491</v>
+        <v>0.719333895246788</v>
       </c>
       <c r="C3">
-        <v>0.1689522210774834</v>
+        <v>0.1668782368312546</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1038268778726747</v>
+        <v>0.1085775062727393</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001464303911624808</v>
+        <v>0.001639062382066077</v>
       </c>
       <c r="H3">
-        <v>0.6045496500210645</v>
+        <v>0.5807239304203221</v>
       </c>
       <c r="I3">
-        <v>0.3654802794511812</v>
+        <v>0.337254471868093</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1263,28 +1263,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01440917462279314</v>
+        <v>0.01373243000347432</v>
       </c>
       <c r="C4">
-        <v>0.005297483418530415</v>
+        <v>0.006123594638008436</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01446742802266978</v>
+        <v>0.01502775516295479</v>
       </c>
       <c r="F4">
-        <v>0.000781342707303259</v>
+        <v>0.0006774185358346204</v>
       </c>
       <c r="G4">
-        <v>0.001069228296522236</v>
+        <v>0.0008872379141898097</v>
       </c>
       <c r="H4">
-        <v>0.2107049079508637</v>
+        <v>0.2132378838376926</v>
       </c>
       <c r="I4">
-        <v>0.2862718344504805</v>
+        <v>0.2858084881973944</v>
       </c>
     </row>
   </sheetData>
@@ -1331,28 +1331,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7074923760124744</v>
+        <v>0.7080455776559573</v>
       </c>
       <c r="C2">
-        <v>0.1718223416707636</v>
+        <v>0.1713590487920828</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1119627702461694</v>
+        <v>0.1110259923791903</v>
       </c>
       <c r="F2">
-        <v>0.001417154429708456</v>
+        <v>0.001342034780635875</v>
       </c>
       <c r="G2">
-        <v>0.001204934411675046</v>
+        <v>0.001291428703326204</v>
       </c>
       <c r="H2">
-        <v>0.5332860200006738</v>
+        <v>0.5395734257125033</v>
       </c>
       <c r="I2">
-        <v>0.3198753077544503</v>
+        <v>0.3236055646237047</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7096254037134553</v>
+        <v>0.708200749722447</v>
       </c>
       <c r="C3">
-        <v>0.1712760968974497</v>
+        <v>0.1712307908068023</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1103367168385876</v>
+        <v>0.1116483387177676</v>
       </c>
       <c r="F3">
-        <v>0.0006965774708766225</v>
+        <v>0.0004254037638741359</v>
       </c>
       <c r="G3">
-        <v>0.001181759174853532</v>
+        <v>0.001207880382856669</v>
       </c>
       <c r="H3">
-        <v>0.5157139216752472</v>
+        <v>0.5379797519173311</v>
       </c>
       <c r="I3">
-        <v>0.2659614527911557</v>
+        <v>0.2894253512499316</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01297111165961544</v>
+        <v>0.01433721351228091</v>
       </c>
       <c r="C4">
-        <v>0.005320201203453573</v>
+        <v>0.004917315158698221</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01319093399832505</v>
+        <v>0.01373420248981401</v>
       </c>
       <c r="F4">
-        <v>0.001757425641431256</v>
+        <v>0.001806267502762792</v>
       </c>
       <c r="G4">
-        <v>0.0009707276120498831</v>
+        <v>0.0009742566753679988</v>
       </c>
       <c r="H4">
-        <v>0.1893138290911223</v>
+        <v>0.1810912011108659</v>
       </c>
       <c r="I4">
-        <v>0.2138080453561317</v>
+        <v>0.2082161369330688</v>
       </c>
     </row>
   </sheetData>
@@ -1457,28 +1457,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.6682193841189785</v>
+        <v>0.6674156657846817</v>
       </c>
       <c r="C2">
-        <v>0.1673391192972466</v>
+        <v>0.1658798107967646</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1621325660203427</v>
+        <v>0.1628483193288255</v>
       </c>
       <c r="F2">
-        <v>0.0003825902886933603</v>
+        <v>0.0007936678263912183</v>
       </c>
       <c r="G2">
-        <v>0.001870206272281326</v>
+        <v>0.001932470301822292</v>
       </c>
       <c r="H2">
-        <v>0.3711963357457707</v>
+        <v>0.3863770763293485</v>
       </c>
       <c r="I2">
-        <v>0.1551188040274427</v>
+        <v>0.1720979802538763</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1486,28 +1486,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.6690498866083892</v>
+        <v>0.6665463103369824</v>
       </c>
       <c r="C3">
-        <v>0.1673893269302451</v>
+        <v>0.1660011507415334</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1604910947008483</v>
+        <v>0.1623042996235836</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001932109557722528</v>
+        <v>0.002003993354954432</v>
       </c>
       <c r="H3">
-        <v>0.3423711673530679</v>
+        <v>0.3806162615464934</v>
       </c>
       <c r="I3">
-        <v>0.117218336034921</v>
+        <v>0.144869683321603</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1515,28 +1515,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01331815040784621</v>
+        <v>0.01055324735745325</v>
       </c>
       <c r="C4">
-        <v>0.006050746275435318</v>
+        <v>0.005565554388840021</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01447014079237034</v>
+        <v>0.01177533915749301</v>
       </c>
       <c r="F4">
-        <v>0.001010183142289479</v>
+        <v>0.001352535370030535</v>
       </c>
       <c r="G4">
-        <v>0.0005668186752389659</v>
+        <v>0.0005194151358844664</v>
       </c>
       <c r="H4">
-        <v>0.1323146096072195</v>
+        <v>0.1517931046099672</v>
       </c>
       <c r="I4">
-        <v>0.1138674239539419</v>
+        <v>0.1303186300414115</v>
       </c>
     </row>
   </sheetData>

--- a/Tutorial/output_mean_median_std.xlsx
+++ b/Tutorial/output_mean_median_std.xlsx
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9814256068545408</v>
+        <v>0.9824048030783414</v>
       </c>
       <c r="C2">
-        <v>0.02037564082733398</v>
+        <v>0.02011961660328995</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.894984581864985E-05</v>
+        <v>2.544800294242576E-05</v>
       </c>
       <c r="G2">
-        <v>0.0007327880972267308</v>
+        <v>0.0007003543028017938</v>
       </c>
       <c r="H2">
-        <v>0.8669316888332891</v>
+        <v>0.8195293810325908</v>
       </c>
       <c r="I2">
-        <v>0.828606031448942</v>
+        <v>0.7741583343647807</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -478,10 +478,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9816454611219864</v>
+        <v>0.9817666844595567</v>
       </c>
       <c r="C3">
-        <v>0.02095020677228275</v>
+        <v>0.02041180170298729</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0005560259251475059</v>
+        <v>0.0004093332639538938</v>
       </c>
       <c r="H3">
-        <v>0.8740291961135238</v>
+        <v>0.754215317576393</v>
       </c>
       <c r="I3">
-        <v>0.7640951780456287</v>
+        <v>0.5688541057180765</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -507,10 +507,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.009122985215168718</v>
+        <v>0.01023979929903026</v>
       </c>
       <c r="C4">
-        <v>0.007052889317847059</v>
+        <v>0.00791371719308206</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001862738051486507</v>
+        <v>0.0001611618079498816</v>
       </c>
       <c r="G4">
-        <v>0.0007359415491892039</v>
+        <v>0.0008130267091643751</v>
       </c>
       <c r="H4">
-        <v>0.2789509177086688</v>
+        <v>0.3218160714249571</v>
       </c>
       <c r="I4">
-        <v>0.5168268631979928</v>
+        <v>0.6058204132451452</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9519335829232176</v>
+        <v>0.9517971075881262</v>
       </c>
       <c r="C2">
-        <v>0.04722781054838524</v>
+        <v>0.04701342812627232</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -587,16 +587,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>9.044803486370543E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002062058155030329</v>
+        <v>0.001923237219911816</v>
       </c>
       <c r="H2">
-        <v>0.9700952405930579</v>
+        <v>0.9680764412561221</v>
       </c>
       <c r="I2">
-        <v>0.977771433484216</v>
+        <v>0.9899818175929829</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9515338296679572</v>
+        <v>0.9509088062553208</v>
       </c>
       <c r="C3">
-        <v>0.04774074075624384</v>
+        <v>0.04737010665508155</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001983594105641994</v>
+        <v>0.001846261616885831</v>
       </c>
       <c r="H3">
-        <v>0.9846902192729042</v>
+        <v>0.9799476710415465</v>
       </c>
       <c r="I3">
-        <v>0.9697234552452506</v>
+        <v>0.9602976107343604</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -633,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.00849116981028796</v>
+        <v>0.009477908248360143</v>
       </c>
       <c r="C4">
-        <v>0.004214970455663538</v>
+        <v>0.004190690590609251</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -645,16 +645,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9.044803486370544E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009611648190077948</v>
+        <v>0.0009746204360138476</v>
       </c>
       <c r="H4">
-        <v>0.1925025453404144</v>
+        <v>0.2309615855895637</v>
       </c>
       <c r="I4">
-        <v>0.3744418618433318</v>
+        <v>0.4357369579869692</v>
       </c>
     </row>
   </sheetData>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9207340368896284</v>
+        <v>0.9223536870188396</v>
       </c>
       <c r="C2">
-        <v>0.07512987017753894</v>
+        <v>0.0740152622629645</v>
       </c>
       <c r="D2">
-        <v>0.00074792660403031</v>
+        <v>0.000998847676143658</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0003920195816258718</v>
+        <v>0.0009079156298113938</v>
       </c>
       <c r="G2">
-        <v>0.002171889800020289</v>
+        <v>0.002346609637160782</v>
       </c>
       <c r="H2">
-        <v>0.5928095289185461</v>
+        <v>0.547538645164463</v>
       </c>
       <c r="I2">
-        <v>0.41278961155491</v>
+        <v>0.3460160574324462</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -730,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9203572027830597</v>
+        <v>0.9221140068699909</v>
       </c>
       <c r="C3">
-        <v>0.07525074337566337</v>
+        <v>0.07417885907555032</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002015853352309783</v>
+        <v>0.00233347086328455</v>
       </c>
       <c r="H3">
-        <v>0.5431766797425888</v>
+        <v>0.5531271389231958</v>
       </c>
       <c r="I3">
-        <v>0.2950452128239592</v>
+        <v>0.3059932942744865</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -759,28 +759,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.006622895486237834</v>
+        <v>0.005946503502559918</v>
       </c>
       <c r="C4">
-        <v>0.003835371700287243</v>
+        <v>0.003048103123683755</v>
       </c>
       <c r="D4">
-        <v>0.001351513491263139</v>
+        <v>0.001408485099473957</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001195574802316088</v>
+        <v>0.001972383281188281</v>
       </c>
       <c r="G4">
-        <v>0.001311924831336019</v>
+        <v>0.001300680920149401</v>
       </c>
       <c r="H4">
-        <v>0.2489705551903668</v>
+        <v>0.2160655752590652</v>
       </c>
       <c r="I4">
-        <v>0.3392639761070101</v>
+        <v>0.2548332365721154</v>
       </c>
     </row>
   </sheetData>
@@ -827,28 +827,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8922733409512236</v>
+        <v>0.8922082077283185</v>
       </c>
       <c r="C2">
-        <v>0.09703477840613781</v>
+        <v>0.09725272661269276</v>
       </c>
       <c r="D2">
-        <v>0.0002650908397375779</v>
+        <v>0.0003990507658315769</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001685457441108868</v>
+        <v>0.0001329482566247176</v>
       </c>
       <c r="G2">
-        <v>0.006996504036428009</v>
+        <v>0.007009916793385238</v>
       </c>
       <c r="H2">
-        <v>0.6163383051956144</v>
+        <v>0.6187339935056669</v>
       </c>
       <c r="I2">
-        <v>0.4065193169441326</v>
+        <v>0.4121272630535643</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8918338527180896</v>
+        <v>0.8926464571469035</v>
       </c>
       <c r="C3">
-        <v>0.09658935790340381</v>
+        <v>0.09656007994446403</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.006994272014129785</v>
+        <v>0.007002445104956418</v>
       </c>
       <c r="H3">
-        <v>0.5915203860583621</v>
+        <v>0.6240717684848067</v>
       </c>
       <c r="I3">
-        <v>0.3499030426638833</v>
+        <v>0.3894736348587194</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -885,28 +885,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.006438249034691764</v>
+        <v>0.005954089898491203</v>
       </c>
       <c r="C4">
-        <v>0.005654329517007765</v>
+        <v>0.005226016011989329</v>
       </c>
       <c r="D4">
-        <v>0.0007673763603263047</v>
+        <v>0.001119434066336688</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0007658468323471529</v>
+        <v>0.0005499351071404893</v>
       </c>
       <c r="G4">
-        <v>0.0006776523377483314</v>
+        <v>0.0006273568034215502</v>
       </c>
       <c r="H4">
-        <v>0.1640596420643207</v>
+        <v>0.172021575855154</v>
       </c>
       <c r="I4">
-        <v>0.2237589563932612</v>
+        <v>0.2216194816991129</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8768053015638786</v>
+        <v>0.8774488251220383</v>
       </c>
       <c r="C2">
-        <v>0.1241961408972401</v>
+        <v>0.1236629046930044</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.209374850791939E-05</v>
+        <v>6.891973032050224E-05</v>
       </c>
       <c r="G2">
-        <v>0.001657601739845988</v>
+        <v>0.001659171468322566</v>
       </c>
       <c r="H2">
-        <v>0.6930521586792894</v>
+        <v>0.70468512471502</v>
       </c>
       <c r="I2">
-        <v>0.5340371414643803</v>
+        <v>0.5531403220433794</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8766247054863139</v>
+        <v>0.8770343080504349</v>
       </c>
       <c r="C3">
-        <v>0.1240456258598715</v>
+        <v>0.1228984580055842</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001501949311045181</v>
+        <v>0.001684805067551465</v>
       </c>
       <c r="H3">
-        <v>0.7105657892506592</v>
+        <v>0.667003004934466</v>
       </c>
       <c r="I3">
-        <v>0.5049328293375215</v>
+        <v>0.4449260128963604</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.007519294623191985</v>
+        <v>0.006416522345251542</v>
       </c>
       <c r="C4">
-        <v>0.005311121755513508</v>
+        <v>0.005275322842318813</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001941259808134911</v>
+        <v>0.0003337541821741111</v>
       </c>
       <c r="G4">
-        <v>0.001037626764758319</v>
+        <v>0.0009651011770528186</v>
       </c>
       <c r="H4">
-        <v>0.2329343923202701</v>
+        <v>0.2390198779797417</v>
       </c>
       <c r="I4">
-        <v>0.340136062405136</v>
+        <v>0.3601371441493629</v>
       </c>
     </row>
   </sheetData>
@@ -1079,28 +1079,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8048303864260328</v>
+        <v>0.8042494265600878</v>
       </c>
       <c r="C2">
-        <v>0.1592480088101831</v>
+        <v>0.1604720833889154</v>
       </c>
       <c r="D2">
-        <v>0.001054051286555418</v>
+        <v>0.001254562540310209</v>
       </c>
       <c r="E2">
-        <v>0.03099508347092304</v>
+        <v>0.03017000155782035</v>
       </c>
       <c r="F2">
-        <v>0.0002131931193726142</v>
+        <v>0.000288991020320823</v>
       </c>
       <c r="G2">
-        <v>0.001890189342973226</v>
+        <v>0.002057960211367569</v>
       </c>
       <c r="H2">
-        <v>0.5211876099501517</v>
+        <v>0.4999980659000079</v>
       </c>
       <c r="I2">
-        <v>0.3245648426302993</v>
+        <v>0.290357525925232</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1108,28 +1108,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8040975843076253</v>
+        <v>0.8042105355148068</v>
       </c>
       <c r="C3">
-        <v>0.158988156523001</v>
+        <v>0.1597536238413001</v>
       </c>
       <c r="D3">
-        <v>0.0004727025232907442</v>
+        <v>0.0006232994182479835</v>
       </c>
       <c r="E3">
-        <v>0.03055120525083257</v>
+        <v>0.02902542978596266</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001915718419110701</v>
+        <v>0.002065213460689854</v>
       </c>
       <c r="H3">
-        <v>0.4769681386227954</v>
+        <v>0.4694806413444771</v>
       </c>
       <c r="I3">
-        <v>0.2274986639058531</v>
+        <v>0.2204120741780491</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1137,28 +1137,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0139038621029296</v>
+        <v>0.01295218161243039</v>
       </c>
       <c r="C4">
-        <v>0.006349713970747919</v>
+        <v>0.006160820042310487</v>
       </c>
       <c r="D4">
-        <v>0.001341327942657238</v>
+        <v>0.001548149688734112</v>
       </c>
       <c r="E4">
-        <v>0.01357929552308659</v>
+        <v>0.01303839806010863</v>
       </c>
       <c r="F4">
-        <v>0.0007289618492255665</v>
+        <v>0.001084899187172463</v>
       </c>
       <c r="G4">
-        <v>0.0006845953904104616</v>
+        <v>0.0005857980104068854</v>
       </c>
       <c r="H4">
-        <v>0.231220559938188</v>
+        <v>0.2019087203040812</v>
       </c>
       <c r="I4">
-        <v>0.2983057458432366</v>
+        <v>0.2199632547113861</v>
       </c>
     </row>
   </sheetData>
@@ -1205,28 +1205,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7205577820292421</v>
+        <v>0.7231952611709218</v>
       </c>
       <c r="C2">
-        <v>0.1674384218005671</v>
+        <v>0.1668391289965473</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1084065263899319</v>
+        <v>0.1056743764446128</v>
       </c>
       <c r="F2">
-        <v>0.0001262074851087313</v>
+        <v>1.248813816277962E-05</v>
       </c>
       <c r="G2">
-        <v>0.001558304794327532</v>
+        <v>0.001453033488730221</v>
       </c>
       <c r="H2">
-        <v>0.6174629937414394</v>
+        <v>0.6204889526483034</v>
       </c>
       <c r="I2">
-        <v>0.4262762397926824</v>
+        <v>0.4324028035058363</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1234,28 +1234,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.719333895246788</v>
+        <v>0.7241597062306803</v>
       </c>
       <c r="C3">
-        <v>0.1668782368312546</v>
+        <v>0.1667835624775913</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1085775062727393</v>
+        <v>0.1057308374439417</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001639062382066077</v>
+        <v>0.001432445092498596</v>
       </c>
       <c r="H3">
-        <v>0.5807239304203221</v>
+        <v>0.6108616427977903</v>
       </c>
       <c r="I3">
-        <v>0.337254471868093</v>
+        <v>0.3731703532779311</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1263,28 +1263,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01373243000347432</v>
+        <v>0.01412565583197877</v>
       </c>
       <c r="C4">
-        <v>0.006123594638008436</v>
+        <v>0.006025038513126893</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01502775516295479</v>
+        <v>0.01463970157725851</v>
       </c>
       <c r="F4">
-        <v>0.0006774185358346204</v>
+        <v>7.303022251435779E-05</v>
       </c>
       <c r="G4">
-        <v>0.0008872379141898097</v>
+        <v>0.0009002848724278113</v>
       </c>
       <c r="H4">
-        <v>0.2132378838376926</v>
+        <v>0.2188035952173738</v>
       </c>
       <c r="I4">
-        <v>0.2858084881973944</v>
+        <v>0.3019879683294547</v>
       </c>
     </row>
   </sheetData>
@@ -1331,28 +1331,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7080455776559573</v>
+        <v>0.7097488755010868</v>
       </c>
       <c r="C2">
-        <v>0.1713590487920828</v>
+        <v>0.1723172113724648</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1110259923791903</v>
+        <v>0.1098990808001256</v>
       </c>
       <c r="F2">
-        <v>0.001342034780635875</v>
+        <v>0.001542426376191892</v>
       </c>
       <c r="G2">
-        <v>0.001291428703326204</v>
+        <v>0.001116170622522078</v>
       </c>
       <c r="H2">
-        <v>0.5395734257125033</v>
+        <v>0.5638215642902873</v>
       </c>
       <c r="I2">
-        <v>0.3236055646237047</v>
+        <v>0.3660494722729311</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.708200749722447</v>
+        <v>0.7087313365000709</v>
       </c>
       <c r="C3">
-        <v>0.1712307908068023</v>
+        <v>0.1725871328370281</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1116483387177676</v>
+        <v>0.111300764928782</v>
       </c>
       <c r="F3">
-        <v>0.0004254037638741359</v>
+        <v>0.0007079218240181324</v>
       </c>
       <c r="G3">
-        <v>0.001207880382856669</v>
+        <v>0.001003774965067166</v>
       </c>
       <c r="H3">
-        <v>0.5379797519173311</v>
+        <v>0.5327754965559429</v>
       </c>
       <c r="I3">
-        <v>0.2894253512499316</v>
+        <v>0.2838525139838864</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01433721351228091</v>
+        <v>0.01246045215482412</v>
       </c>
       <c r="C4">
-        <v>0.004917315158698221</v>
+        <v>0.005008668422134841</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01373420248981401</v>
+        <v>0.01309052796828715</v>
       </c>
       <c r="F4">
-        <v>0.001806267502762792</v>
+        <v>0.001846195650543922</v>
       </c>
       <c r="G4">
-        <v>0.0009742566753679988</v>
+        <v>0.0009624695482085524</v>
       </c>
       <c r="H4">
-        <v>0.1810912011108659</v>
+        <v>0.2205473354770921</v>
       </c>
       <c r="I4">
-        <v>0.2082161369330688</v>
+        <v>0.2696257145399084</v>
       </c>
     </row>
   </sheetData>
@@ -1457,28 +1457,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.6674156657846817</v>
+        <v>0.6663610475214418</v>
       </c>
       <c r="C2">
-        <v>0.1658798107967646</v>
+        <v>0.1656658776965979</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1628483193288255</v>
+        <v>0.1638027507943958</v>
       </c>
       <c r="F2">
-        <v>0.0007936678263912183</v>
+        <v>0.0007400827522185063</v>
       </c>
       <c r="G2">
-        <v>0.001932470301822292</v>
+        <v>0.00206043188285488</v>
       </c>
       <c r="H2">
-        <v>0.3863770763293485</v>
+        <v>0.3916226245835577</v>
       </c>
       <c r="I2">
-        <v>0.1720979802538763</v>
+        <v>0.1753452032757979</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1486,28 +1486,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.6665463103369824</v>
+        <v>0.665715390100069</v>
       </c>
       <c r="C3">
-        <v>0.1660011507415334</v>
+        <v>0.1650786840707637</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1623042996235836</v>
+        <v>0.1644696351707707</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002003993354954432</v>
+        <v>0.002083439108865574</v>
       </c>
       <c r="H3">
-        <v>0.3806162615464934</v>
+        <v>0.3908096449261695</v>
       </c>
       <c r="I3">
-        <v>0.144869683321603</v>
+        <v>0.1527346947936796</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1515,28 +1515,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01055324735745325</v>
+        <v>0.009757258157568735</v>
       </c>
       <c r="C4">
-        <v>0.005565554388840021</v>
+        <v>0.005130138484105541</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01177533915749301</v>
+        <v>0.01143015382137614</v>
       </c>
       <c r="F4">
-        <v>0.001352535370030535</v>
+        <v>0.0013639600450356</v>
       </c>
       <c r="G4">
-        <v>0.0005194151358844664</v>
+        <v>0.0005150261166572595</v>
       </c>
       <c r="H4">
-        <v>0.1517931046099672</v>
+        <v>0.1489929941749474</v>
       </c>
       <c r="I4">
-        <v>0.1303186300414115</v>
+        <v>0.1399342330697885</v>
       </c>
     </row>
   </sheetData>

--- a/Tutorial/output_mean_median_std.xlsx
+++ b/Tutorial/output_mean_median_std.xlsx
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9824048030783414</v>
+        <v>0.9813663227491256</v>
       </c>
       <c r="C2">
-        <v>0.02011961660328995</v>
+        <v>0.02059035227009718</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.544800294242576E-05</v>
+        <v>1.027800302564605E-05</v>
       </c>
       <c r="G2">
-        <v>0.0007003543028017938</v>
+        <v>0.0005514156556579975</v>
       </c>
       <c r="H2">
-        <v>0.8195293810325908</v>
+        <v>0.8763998720348138</v>
       </c>
       <c r="I2">
-        <v>0.7741583343647807</v>
+        <v>0.8706971918885432</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -478,10 +478,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9817666844595567</v>
+        <v>0.981365079117184</v>
       </c>
       <c r="C3">
-        <v>0.02041180170298729</v>
+        <v>0.02097936937757502</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0004093332639538938</v>
+        <v>0.0003443354547467904</v>
       </c>
       <c r="H3">
-        <v>0.754215317576393</v>
+        <v>0.8121412946932038</v>
       </c>
       <c r="I3">
-        <v>0.5688541057180765</v>
+        <v>0.6603980989426204</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -507,10 +507,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01023979929903026</v>
+        <v>0.00983115378697624</v>
       </c>
       <c r="C4">
-        <v>0.00791371719308206</v>
+        <v>0.007872870536786361</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001611618079498816</v>
+        <v>9.160710846003055E-05</v>
       </c>
       <c r="G4">
-        <v>0.0008130267091643751</v>
+        <v>0.0006660465051128074</v>
       </c>
       <c r="H4">
-        <v>0.3218160714249571</v>
+        <v>0.3219581128817994</v>
       </c>
       <c r="I4">
-        <v>0.6058204132451452</v>
+        <v>0.6306222529860077</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9517971075881262</v>
+        <v>0.9505209502623597</v>
       </c>
       <c r="C2">
-        <v>0.04701342812627232</v>
+        <v>0.04771642526920778</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001923237219911816</v>
+        <v>0.002114184278734744</v>
       </c>
       <c r="H2">
-        <v>0.9680764412561221</v>
+        <v>0.9815248591085047</v>
       </c>
       <c r="I2">
-        <v>0.9899818175929829</v>
+        <v>0.9986063270105267</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9509088062553208</v>
+        <v>0.9506089343608749</v>
       </c>
       <c r="C3">
-        <v>0.04737010665508155</v>
+        <v>0.04765628211781858</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001846261616885831</v>
+        <v>0.002185125179592914</v>
       </c>
       <c r="H3">
-        <v>0.9799476710415465</v>
+        <v>0.9662427795521864</v>
       </c>
       <c r="I3">
-        <v>0.9602976107343604</v>
+        <v>0.9336264495266418</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -633,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.009477908248360143</v>
+        <v>0.01085950358027451</v>
       </c>
       <c r="C4">
-        <v>0.004190690590609251</v>
+        <v>0.004170519823581005</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009746204360138476</v>
+        <v>0.001009906442667789</v>
       </c>
       <c r="H4">
-        <v>0.2309615855895637</v>
+        <v>0.188602724903344</v>
       </c>
       <c r="I4">
-        <v>0.4357369579869692</v>
+        <v>0.3856946311160087</v>
       </c>
     </row>
   </sheetData>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9223536870188396</v>
+        <v>0.9228977582623559</v>
       </c>
       <c r="C2">
-        <v>0.0740152622629645</v>
+        <v>0.07421899680321818</v>
       </c>
       <c r="D2">
-        <v>0.000998847676143658</v>
+        <v>0.00101739375925424</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0009079156298113938</v>
+        <v>0.0004673886972312573</v>
       </c>
       <c r="G2">
-        <v>0.002346609637160782</v>
+        <v>0.002276592473378384</v>
       </c>
       <c r="H2">
-        <v>0.547538645164463</v>
+        <v>0.5724209650130545</v>
       </c>
       <c r="I2">
-        <v>0.3460160574324462</v>
+        <v>0.3732608431729142</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -730,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9221140068699909</v>
+        <v>0.9227167389373616</v>
       </c>
       <c r="C3">
-        <v>0.07417885907555032</v>
+        <v>0.07407785575290862</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00233347086328455</v>
+        <v>0.002219323024745602</v>
       </c>
       <c r="H3">
-        <v>0.5531271389231958</v>
+        <v>0.5539745749584584</v>
       </c>
       <c r="I3">
-        <v>0.3059932942744865</v>
+        <v>0.306934374286661</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -759,28 +759,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.005946503502559918</v>
+        <v>0.006665210037902646</v>
       </c>
       <c r="C4">
-        <v>0.003048103123683755</v>
+        <v>0.003556924257443071</v>
       </c>
       <c r="D4">
-        <v>0.001408485099473957</v>
+        <v>0.001762078964018438</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001972383281188281</v>
+        <v>0.001308112943998281</v>
       </c>
       <c r="G4">
-        <v>0.001300680920149401</v>
+        <v>0.001258373101758185</v>
       </c>
       <c r="H4">
-        <v>0.2160655752590652</v>
+        <v>0.2146057743168602</v>
       </c>
       <c r="I4">
-        <v>0.2548332365721154</v>
+        <v>0.2774270533143521</v>
       </c>
     </row>
   </sheetData>
@@ -827,28 +827,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8922082077283185</v>
+        <v>0.8921895413218648</v>
       </c>
       <c r="C2">
-        <v>0.09725272661269276</v>
+        <v>0.09699408127402843</v>
       </c>
       <c r="D2">
-        <v>0.0003990507658315769</v>
+        <v>0.0003399829148275383</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001329482566247176</v>
+        <v>7.161424280123598E-05</v>
       </c>
       <c r="G2">
-        <v>0.007009916793385238</v>
+        <v>0.006925067790240129</v>
       </c>
       <c r="H2">
-        <v>0.6187339935056669</v>
+        <v>0.6209115117255181</v>
       </c>
       <c r="I2">
-        <v>0.4121272630535643</v>
+        <v>0.4175588370868616</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8926464571469035</v>
+        <v>0.8913694242393833</v>
       </c>
       <c r="C3">
-        <v>0.09656007994446403</v>
+        <v>0.09780772722324146</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.007002445104956418</v>
+        <v>0.006884759954481831</v>
       </c>
       <c r="H3">
-        <v>0.6240717684848067</v>
+        <v>0.6106818075333458</v>
       </c>
       <c r="I3">
-        <v>0.3894736348587194</v>
+        <v>0.3729325585994466</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -885,28 +885,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.005954089898491203</v>
+        <v>0.006181779792706412</v>
       </c>
       <c r="C4">
-        <v>0.005226016011989329</v>
+        <v>0.004493991744603008</v>
       </c>
       <c r="D4">
-        <v>0.001119434066336688</v>
+        <v>0.0009149834293079822</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0005499351071404893</v>
+        <v>0.0002795836233224105</v>
       </c>
       <c r="G4">
-        <v>0.0006273568034215502</v>
+        <v>0.0006791611433581723</v>
       </c>
       <c r="H4">
-        <v>0.172021575855154</v>
+        <v>0.1798645160528972</v>
       </c>
       <c r="I4">
-        <v>0.2216194816991129</v>
+        <v>0.2367058430543965</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8774488251220383</v>
+        <v>0.8778420453199545</v>
       </c>
       <c r="C2">
-        <v>0.1236629046930044</v>
+        <v>0.1234900423151172</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.891973032050224E-05</v>
+        <v>1.660852393080363E-05</v>
       </c>
       <c r="G2">
-        <v>0.001659171468322566</v>
+        <v>0.001790947674437937</v>
       </c>
       <c r="H2">
-        <v>0.70468512471502</v>
+        <v>0.7120008988828154</v>
       </c>
       <c r="I2">
-        <v>0.5531403220433794</v>
+        <v>0.5571170142713426</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8770343080504349</v>
+        <v>0.8776610813213397</v>
       </c>
       <c r="C3">
-        <v>0.1228984580055842</v>
+        <v>0.1238725520276432</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001684805067551465</v>
+        <v>0.001848368938175406</v>
       </c>
       <c r="H3">
-        <v>0.667003004934466</v>
+        <v>0.7204912134928008</v>
       </c>
       <c r="I3">
-        <v>0.4449260128963604</v>
+        <v>0.5191418041839735</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.006416522345251542</v>
+        <v>0.006288763563199864</v>
       </c>
       <c r="C4">
-        <v>0.005275322842318813</v>
+        <v>0.00489235690904772</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0003337541821741111</v>
+        <v>0.0001660852393080363</v>
       </c>
       <c r="G4">
-        <v>0.0009651011770528186</v>
+        <v>0.001081160953218072</v>
       </c>
       <c r="H4">
-        <v>0.2390198779797417</v>
+        <v>0.2251189007079704</v>
       </c>
       <c r="I4">
-        <v>0.3601371441493629</v>
+        <v>0.3407747037679342</v>
       </c>
     </row>
   </sheetData>
@@ -1079,28 +1079,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8042494265600878</v>
+        <v>0.8050282140972423</v>
       </c>
       <c r="C2">
-        <v>0.1604720833889154</v>
+        <v>0.1602408995728893</v>
       </c>
       <c r="D2">
-        <v>0.001254562540310209</v>
+        <v>0.001001122710299244</v>
       </c>
       <c r="E2">
-        <v>0.03017000155782035</v>
+        <v>0.03003641226677903</v>
       </c>
       <c r="F2">
-        <v>0.000288991020320823</v>
+        <v>0.0002728130020380676</v>
       </c>
       <c r="G2">
-        <v>0.002057960211367569</v>
+        <v>0.002089384607202462</v>
       </c>
       <c r="H2">
-        <v>0.4999980659000079</v>
+        <v>0.497267337818871</v>
       </c>
       <c r="I2">
-        <v>0.290357525925232</v>
+        <v>0.2937898310292172</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1108,28 +1108,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8042105355148068</v>
+        <v>0.8052954759919783</v>
       </c>
       <c r="C3">
-        <v>0.1597536238413001</v>
+        <v>0.1610572974661055</v>
       </c>
       <c r="D3">
-        <v>0.0006232994182479835</v>
+        <v>0.0005185234960179903</v>
       </c>
       <c r="E3">
-        <v>0.02902542978596266</v>
+        <v>0.0288930103590928</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002065213460689854</v>
+        <v>0.002095382691264994</v>
       </c>
       <c r="H3">
-        <v>0.4694806413444771</v>
+        <v>0.4627946761066343</v>
       </c>
       <c r="I3">
-        <v>0.2204120741780491</v>
+        <v>0.2142298643882602</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1137,28 +1137,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01295218161243039</v>
+        <v>0.0135317906981834</v>
       </c>
       <c r="C4">
-        <v>0.006160820042310487</v>
+        <v>0.006319885356577341</v>
       </c>
       <c r="D4">
-        <v>0.001548149688734112</v>
+        <v>0.001181123109238329</v>
       </c>
       <c r="E4">
-        <v>0.01303839806010863</v>
+        <v>0.01337415860714201</v>
       </c>
       <c r="F4">
-        <v>0.001084899187172463</v>
+        <v>0.0008291301506487963</v>
       </c>
       <c r="G4">
-        <v>0.0005857980104068854</v>
+        <v>0.0007073834716735939</v>
       </c>
       <c r="H4">
-        <v>0.2019087203040812</v>
+        <v>0.2167599467449622</v>
       </c>
       <c r="I4">
-        <v>0.2199632547113861</v>
+        <v>0.2544871301735367</v>
       </c>
     </row>
   </sheetData>
@@ -1205,28 +1205,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7231952611709218</v>
+        <v>0.7230571112485928</v>
       </c>
       <c r="C2">
-        <v>0.1668391289965473</v>
+        <v>0.1670585021591728</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1056743764446128</v>
+        <v>0.1057018841185708</v>
       </c>
       <c r="F2">
-        <v>1.248813816277962E-05</v>
+        <v>0.0001777920587168935</v>
       </c>
       <c r="G2">
-        <v>0.001453033488730221</v>
+        <v>0.001585319409836065</v>
       </c>
       <c r="H2">
-        <v>0.6204889526483034</v>
+        <v>0.6225659926236488</v>
       </c>
       <c r="I2">
-        <v>0.4324028035058363</v>
+        <v>0.4265155993446997</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1234,28 +1234,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7241597062306803</v>
+        <v>0.7236226865449576</v>
       </c>
       <c r="C3">
-        <v>0.1667835624775913</v>
+        <v>0.1672072244817877</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1057308374439417</v>
+        <v>0.1062140573943352</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001432445092498596</v>
+        <v>0.001606293852907027</v>
       </c>
       <c r="H3">
-        <v>0.6108616427977903</v>
+        <v>0.623557995857443</v>
       </c>
       <c r="I3">
-        <v>0.3731703532779311</v>
+        <v>0.3888251768527027</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1263,28 +1263,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01412565583197877</v>
+        <v>0.01581663640068002</v>
       </c>
       <c r="C4">
-        <v>0.006025038513126893</v>
+        <v>0.005946420786989437</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01463970157725851</v>
+        <v>0.01667594118249621</v>
       </c>
       <c r="F4">
-        <v>7.303022251435779E-05</v>
+        <v>0.0006655081168823475</v>
       </c>
       <c r="G4">
-        <v>0.0009002848724278113</v>
+        <v>0.001009867900420784</v>
       </c>
       <c r="H4">
-        <v>0.2188035952173738</v>
+        <v>0.1982936914119265</v>
       </c>
       <c r="I4">
-        <v>0.3019879683294547</v>
+        <v>0.2624504913454428</v>
       </c>
     </row>
   </sheetData>
@@ -1331,28 +1331,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7097488755010868</v>
+        <v>0.7083665473503522</v>
       </c>
       <c r="C2">
-        <v>0.1723172113724648</v>
+        <v>0.172140747341159</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1098990808001256</v>
+        <v>0.109915925375218</v>
       </c>
       <c r="F2">
-        <v>0.001542426376191892</v>
+        <v>0.001366270908479136</v>
       </c>
       <c r="G2">
-        <v>0.001116170622522078</v>
+        <v>0.001473679570610945</v>
       </c>
       <c r="H2">
-        <v>0.5638215642902873</v>
+        <v>0.5531043455574043</v>
       </c>
       <c r="I2">
-        <v>0.3660494722729311</v>
+        <v>0.3365418483050271</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7087313365000709</v>
+        <v>0.7092029919087566</v>
       </c>
       <c r="C3">
-        <v>0.1725871328370281</v>
+        <v>0.172649435287044</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.111300764928782</v>
+        <v>0.1101886135979415</v>
       </c>
       <c r="F3">
-        <v>0.0007079218240181324</v>
+        <v>0.0007761773244401463</v>
       </c>
       <c r="G3">
-        <v>0.001003774965067166</v>
+        <v>0.001374412757086569</v>
       </c>
       <c r="H3">
-        <v>0.5327754965559429</v>
+        <v>0.5249987304476064</v>
       </c>
       <c r="I3">
-        <v>0.2838525139838864</v>
+        <v>0.2756241995725678</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01246045215482412</v>
+        <v>0.01478184863884742</v>
       </c>
       <c r="C4">
-        <v>0.005008668422134841</v>
+        <v>0.004550692979765636</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01309052796828715</v>
+        <v>0.01378893298804799</v>
       </c>
       <c r="F4">
-        <v>0.001846195650543922</v>
+        <v>0.00162132934379999</v>
       </c>
       <c r="G4">
-        <v>0.0009624695482085524</v>
+        <v>0.001031382732408205</v>
       </c>
       <c r="H4">
-        <v>0.2205473354770921</v>
+        <v>0.1758598823287143</v>
       </c>
       <c r="I4">
-        <v>0.2696257145399084</v>
+        <v>0.2086546261886539</v>
       </c>
     </row>
   </sheetData>
@@ -1457,28 +1457,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.6663610475214418</v>
+        <v>0.6670939589762394</v>
       </c>
       <c r="C2">
-        <v>0.1656658776965979</v>
+        <v>0.167150583386917</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1638027507943958</v>
+        <v>0.1625721559832684</v>
       </c>
       <c r="F2">
-        <v>0.0007400827522185063</v>
+        <v>0.0005083076040747601</v>
       </c>
       <c r="G2">
-        <v>0.00206043188285488</v>
+        <v>0.002032652518019686</v>
       </c>
       <c r="H2">
-        <v>0.3916226245835577</v>
+        <v>0.404952840145944</v>
       </c>
       <c r="I2">
-        <v>0.1753452032757979</v>
+        <v>0.1855629851075834</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1486,28 +1486,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.665715390100069</v>
+        <v>0.6671628179731206</v>
       </c>
       <c r="C3">
-        <v>0.1650786840707637</v>
+        <v>0.1665007698710417</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1644696351707707</v>
+        <v>0.1627195625812812</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002083439108865574</v>
+        <v>0.002057398418554315</v>
       </c>
       <c r="H3">
-        <v>0.3908096449261695</v>
+        <v>0.4019143734702108</v>
       </c>
       <c r="I3">
-        <v>0.1527346947936796</v>
+        <v>0.161535271506373</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1515,28 +1515,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.009757258157568735</v>
+        <v>0.01055092642693977</v>
       </c>
       <c r="C4">
-        <v>0.005130138484105541</v>
+        <v>0.005099574036167615</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01143015382137614</v>
+        <v>0.01157782839478945</v>
       </c>
       <c r="F4">
-        <v>0.0013639600450356</v>
+        <v>0.001028787780614964</v>
       </c>
       <c r="G4">
-        <v>0.0005150261166572595</v>
+        <v>0.0005015078349146511</v>
       </c>
       <c r="H4">
-        <v>0.1489929941749474</v>
+        <v>0.1476283292641702</v>
       </c>
       <c r="I4">
-        <v>0.1399342330697885</v>
+        <v>0.135924099674483</v>
       </c>
     </row>
   </sheetData>

--- a/Tutorial/output_mean_median_std.xlsx
+++ b/Tutorial/output_mean_median_std.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="11">
   <si>
-    <t>gl</t>
+    <t>melt</t>
   </si>
   <si>
     <t>ol</t>
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9813663227491256</v>
+        <v>0.9819690723183886</v>
       </c>
       <c r="C2">
-        <v>0.02059035227009718</v>
+        <v>0.0203114200037585</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.027800302564605E-05</v>
+        <v>2.65604664760786E-05</v>
       </c>
       <c r="G2">
-        <v>0.0005514156556579975</v>
+        <v>0.000634746029550483</v>
       </c>
       <c r="H2">
-        <v>0.8763998720348138</v>
+        <v>0.8418562204076104</v>
       </c>
       <c r="I2">
-        <v>0.8706971918885432</v>
+        <v>0.8037827439636921</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -478,10 +478,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.981365079117184</v>
+        <v>0.9823138711697665</v>
       </c>
       <c r="C3">
-        <v>0.02097936937757502</v>
+        <v>0.01984532950318919</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003443354547467904</v>
+        <v>0.0003915938008713334</v>
       </c>
       <c r="H3">
-        <v>0.8121412946932038</v>
+        <v>0.7959003413768201</v>
       </c>
       <c r="I3">
-        <v>0.6603980989426204</v>
+        <v>0.6334756028871635</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -507,10 +507,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.00983115378697624</v>
+        <v>0.008378299198132795</v>
       </c>
       <c r="C4">
-        <v>0.007872870536786361</v>
+        <v>0.006974947133695278</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9.160710846003055E-05</v>
+        <v>0.0001889755112454919</v>
       </c>
       <c r="G4">
-        <v>0.0006660465051128074</v>
+        <v>0.000714842558578537</v>
       </c>
       <c r="H4">
-        <v>0.3219581128817994</v>
+        <v>0.3098726491832139</v>
       </c>
       <c r="I4">
-        <v>0.6306222529860077</v>
+        <v>0.5873727894946082</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9505209502623597</v>
+        <v>0.9516248001328913</v>
       </c>
       <c r="C2">
-        <v>0.04771642526920778</v>
+        <v>0.04673231691724285</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002114184278734744</v>
+        <v>0.002012417701609907</v>
       </c>
       <c r="H2">
-        <v>0.9815248591085047</v>
+        <v>0.9307776610130292</v>
       </c>
       <c r="I2">
-        <v>0.9986063270105267</v>
+        <v>0.9116665095208737</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9506089343608749</v>
+        <v>0.9519454925435745</v>
       </c>
       <c r="C3">
-        <v>0.04765628211781858</v>
+        <v>0.04653132816743898</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002185125179592914</v>
+        <v>0.00207855173494836</v>
       </c>
       <c r="H3">
-        <v>0.9662427795521864</v>
+        <v>0.922559376945658</v>
       </c>
       <c r="I3">
-        <v>0.9336264495266418</v>
+        <v>0.8511174200171766</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -633,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01085950358027451</v>
+        <v>0.01045106470854515</v>
       </c>
       <c r="C4">
-        <v>0.004170519823581005</v>
+        <v>0.004439792999207742</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001009906442667789</v>
+        <v>0.0008426471747546166</v>
       </c>
       <c r="H4">
-        <v>0.188602724903344</v>
+        <v>0.213956134652745</v>
       </c>
       <c r="I4">
-        <v>0.3856946311160087</v>
+        <v>0.4255033660054562</v>
       </c>
     </row>
   </sheetData>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9228977582623559</v>
+        <v>0.9205156343677</v>
       </c>
       <c r="C2">
-        <v>0.07421899680321818</v>
+        <v>0.0749795012310195</v>
       </c>
       <c r="D2">
-        <v>0.00101739375925424</v>
+        <v>0.0008256942967235543</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0004673886972312573</v>
+        <v>0.0003344402414604482</v>
       </c>
       <c r="G2">
-        <v>0.002276592473378384</v>
+        <v>0.002316621426950536</v>
       </c>
       <c r="H2">
-        <v>0.5724209650130545</v>
+        <v>0.5918057403371705</v>
       </c>
       <c r="I2">
-        <v>0.3732608431729142</v>
+        <v>0.3935809140298243</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -730,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9227167389373616</v>
+        <v>0.9204192971028167</v>
       </c>
       <c r="C3">
-        <v>0.07407785575290862</v>
+        <v>0.07496475237022467</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002219323024745602</v>
+        <v>0.002204465314685201</v>
       </c>
       <c r="H3">
-        <v>0.5539745749584584</v>
+        <v>0.5657865211691311</v>
       </c>
       <c r="I3">
-        <v>0.306934374286661</v>
+        <v>0.3201354561577427</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -759,28 +759,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.006665210037902646</v>
+        <v>0.006288956432705745</v>
       </c>
       <c r="C4">
-        <v>0.003556924257443071</v>
+        <v>0.003709440147969786</v>
       </c>
       <c r="D4">
-        <v>0.001762078964018438</v>
+        <v>0.001644980601667336</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001308112943998281</v>
+        <v>0.0008596330024425255</v>
       </c>
       <c r="G4">
-        <v>0.001258373101758185</v>
+        <v>0.001293824333921474</v>
       </c>
       <c r="H4">
-        <v>0.2146057743168602</v>
+        <v>0.2092480035838725</v>
       </c>
       <c r="I4">
-        <v>0.2774270533143521</v>
+        <v>0.275099684901271</v>
       </c>
     </row>
   </sheetData>
@@ -827,28 +827,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8921895413218648</v>
+        <v>0.8924462060816221</v>
       </c>
       <c r="C2">
-        <v>0.09699408127402843</v>
+        <v>0.09748013233326935</v>
       </c>
       <c r="D2">
-        <v>0.0003399829148275383</v>
+        <v>0.0003699498510989908</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.161424280123598E-05</v>
+        <v>7.638670305067734E-05</v>
       </c>
       <c r="G2">
-        <v>0.006925067790240129</v>
+        <v>0.007040246461558161</v>
       </c>
       <c r="H2">
-        <v>0.6209115117255181</v>
+        <v>0.6187605645799222</v>
       </c>
       <c r="I2">
-        <v>0.4175588370868616</v>
+        <v>0.4102048087354562</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8913694242393833</v>
+        <v>0.8924262615771335</v>
       </c>
       <c r="C3">
-        <v>0.09780772722324146</v>
+        <v>0.09705913340775434</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.006884759954481831</v>
+        <v>0.006981799956318089</v>
       </c>
       <c r="H3">
-        <v>0.6106818075333458</v>
+        <v>0.5959750072087142</v>
       </c>
       <c r="I3">
-        <v>0.3729325585994466</v>
+        <v>0.3551891857862702</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -885,28 +885,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.006181779792706412</v>
+        <v>0.00539746133836561</v>
       </c>
       <c r="C4">
-        <v>0.004493991744603008</v>
+        <v>0.004365070582276</v>
       </c>
       <c r="D4">
-        <v>0.0009149834293079822</v>
+        <v>0.0009959164792198401</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002795836233224105</v>
+        <v>0.000395430123832958</v>
       </c>
       <c r="G4">
-        <v>0.0006791611433581723</v>
+        <v>0.0006977256701034496</v>
       </c>
       <c r="H4">
-        <v>0.1798645160528972</v>
+        <v>0.1661816350092133</v>
       </c>
       <c r="I4">
-        <v>0.2367058430543965</v>
+        <v>0.2200422502091548</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8778420453199545</v>
+        <v>0.8782646649734585</v>
       </c>
       <c r="C2">
-        <v>0.1234900423151172</v>
+        <v>0.1237103688886357</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.660852393080363E-05</v>
+        <v>4.991873794869044E-05</v>
       </c>
       <c r="G2">
-        <v>0.001790947674437937</v>
+        <v>0.001766815897062621</v>
       </c>
       <c r="H2">
-        <v>0.7120008988828154</v>
+        <v>0.7257194875102805</v>
       </c>
       <c r="I2">
-        <v>0.5571170142713426</v>
+        <v>0.5649945958543107</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8776610813213397</v>
+        <v>0.8779486548777997</v>
       </c>
       <c r="C3">
-        <v>0.1238725520276432</v>
+        <v>0.123248391195602</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001848368938175406</v>
+        <v>0.001819455293819089</v>
       </c>
       <c r="H3">
-        <v>0.7204912134928008</v>
+        <v>0.7149564339565446</v>
       </c>
       <c r="I3">
-        <v>0.5191418041839735</v>
+        <v>0.5111632229509708</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.006288763563199864</v>
+        <v>0.006510741305286743</v>
       </c>
       <c r="C4">
-        <v>0.00489235690904772</v>
+        <v>0.005315979054753221</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001660852393080363</v>
+        <v>0.0003346283355274264</v>
       </c>
       <c r="G4">
-        <v>0.001081160953218072</v>
+        <v>0.001124456982490767</v>
       </c>
       <c r="H4">
-        <v>0.2251189007079704</v>
+        <v>0.1967560693097645</v>
       </c>
       <c r="I4">
-        <v>0.3407747037679342</v>
+        <v>0.2984680271054279</v>
       </c>
     </row>
   </sheetData>
@@ -1079,28 +1079,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8050282140972423</v>
+        <v>0.8065924928867735</v>
       </c>
       <c r="C2">
-        <v>0.1602408995728893</v>
+        <v>0.1603003902375896</v>
       </c>
       <c r="D2">
-        <v>0.001001122710299244</v>
+        <v>0.001144834860444915</v>
       </c>
       <c r="E2">
-        <v>0.03003641226677903</v>
+        <v>0.02864373254751334</v>
       </c>
       <c r="F2">
-        <v>0.0002728130020380676</v>
+        <v>0.0002142553084142405</v>
       </c>
       <c r="G2">
-        <v>0.002089384607202462</v>
+        <v>0.0018685942230329</v>
       </c>
       <c r="H2">
-        <v>0.497267337818871</v>
+        <v>0.4976614474581713</v>
       </c>
       <c r="I2">
-        <v>0.2937898310292172</v>
+        <v>0.2881511901105325</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1108,28 +1108,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8052954759919783</v>
+        <v>0.8068323892322613</v>
       </c>
       <c r="C3">
-        <v>0.1610572974661055</v>
+        <v>0.1599465410845224</v>
       </c>
       <c r="D3">
-        <v>0.0005185234960179903</v>
+        <v>0.0003608698637721778</v>
       </c>
       <c r="E3">
-        <v>0.0288930103590928</v>
+        <v>0.02782644428264643</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002095382691264994</v>
+        <v>0.00185170939704813</v>
       </c>
       <c r="H3">
-        <v>0.4627946761066343</v>
+        <v>0.4743691495387142</v>
       </c>
       <c r="I3">
-        <v>0.2142298643882602</v>
+        <v>0.2251472995892616</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1137,28 +1137,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0135317906981834</v>
+        <v>0.01256403096464434</v>
       </c>
       <c r="C4">
-        <v>0.006319885356577341</v>
+        <v>0.00570551029716445</v>
       </c>
       <c r="D4">
-        <v>0.001181123109238329</v>
+        <v>0.001455530773753446</v>
       </c>
       <c r="E4">
-        <v>0.01337415860714201</v>
+        <v>0.01296315606759189</v>
       </c>
       <c r="F4">
-        <v>0.0008291301506487963</v>
+        <v>0.0009523589537822463</v>
       </c>
       <c r="G4">
-        <v>0.0007073834716735939</v>
+        <v>0.0006883675883974569</v>
       </c>
       <c r="H4">
-        <v>0.2167599467449622</v>
+        <v>0.2022206860912165</v>
       </c>
       <c r="I4">
-        <v>0.2544871301735367</v>
+        <v>0.2193599463322276</v>
       </c>
     </row>
   </sheetData>
@@ -1205,28 +1205,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7230571112485928</v>
+        <v>0.7246172017212558</v>
       </c>
       <c r="C2">
-        <v>0.1670585021591728</v>
+        <v>0.1681825925975229</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1057018841185708</v>
+        <v>0.1038645317225501</v>
       </c>
       <c r="F2">
-        <v>0.0001777920587168935</v>
+        <v>8.298959423737342E-05</v>
       </c>
       <c r="G2">
-        <v>0.001585319409836065</v>
+        <v>0.001395718807421038</v>
       </c>
       <c r="H2">
-        <v>0.6225659926236488</v>
+        <v>0.6006253302743889</v>
       </c>
       <c r="I2">
-        <v>0.4265155993446997</v>
+        <v>0.4018766878516814</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1234,28 +1234,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7236226865449576</v>
+        <v>0.7244806331278918</v>
       </c>
       <c r="C3">
-        <v>0.1672072244817877</v>
+        <v>0.168184116824261</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1062140573943352</v>
+        <v>0.103544343896274</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001606293852907027</v>
+        <v>0.001440403346747757</v>
       </c>
       <c r="H3">
-        <v>0.623557995857443</v>
+        <v>0.5966662387974655</v>
       </c>
       <c r="I3">
-        <v>0.3888251768527027</v>
+        <v>0.3560292076223339</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1263,28 +1263,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01581663640068002</v>
+        <v>0.014340590026318</v>
       </c>
       <c r="C4">
-        <v>0.005946420786989437</v>
+        <v>0.006140410225281352</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01667594118249621</v>
+        <v>0.01412871457142256</v>
       </c>
       <c r="F4">
-        <v>0.0006655081168823475</v>
+        <v>0.0003254138087629065</v>
       </c>
       <c r="G4">
-        <v>0.001009867900420784</v>
+        <v>0.0008802098892371085</v>
       </c>
       <c r="H4">
-        <v>0.1982936914119265</v>
+        <v>0.2038168629448242</v>
       </c>
       <c r="I4">
-        <v>0.2624504913454428</v>
+        <v>0.2596745085424401</v>
       </c>
     </row>
   </sheetData>
@@ -1331,28 +1331,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7083665473503522</v>
+        <v>0.7077346274716367</v>
       </c>
       <c r="C2">
-        <v>0.172140747341159</v>
+        <v>0.1724737027791001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.109915925375218</v>
+        <v>0.1103735471902466</v>
       </c>
       <c r="F2">
-        <v>0.001366270908479136</v>
+        <v>0.001410012463597061</v>
       </c>
       <c r="G2">
-        <v>0.001473679570610945</v>
+        <v>0.001137424474911357</v>
       </c>
       <c r="H2">
-        <v>0.5531043455574043</v>
+        <v>0.565889189285373</v>
       </c>
       <c r="I2">
-        <v>0.3365418483050271</v>
+        <v>0.3598760391872515</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7092029919087566</v>
+        <v>0.7078622530653605</v>
       </c>
       <c r="C3">
-        <v>0.172649435287044</v>
+        <v>0.1723572213170182</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1101886135979415</v>
+        <v>0.1108271353943358</v>
       </c>
       <c r="F3">
-        <v>0.0007761773244401463</v>
+        <v>0.0007686994168280294</v>
       </c>
       <c r="G3">
-        <v>0.001374412757086569</v>
+        <v>0.00100152752030067</v>
       </c>
       <c r="H3">
-        <v>0.5249987304476064</v>
+        <v>0.5143198412328667</v>
       </c>
       <c r="I3">
-        <v>0.2756241995725678</v>
+        <v>0.2645417079212967</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01478184863884742</v>
+        <v>0.01421304953090538</v>
       </c>
       <c r="C4">
-        <v>0.004550692979765636</v>
+        <v>0.005588570773612178</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01378893298804799</v>
+        <v>0.01446132107085068</v>
       </c>
       <c r="F4">
-        <v>0.00162132934379999</v>
+        <v>0.001592425264205111</v>
       </c>
       <c r="G4">
-        <v>0.001031382732408205</v>
+        <v>0.001001999273376107</v>
       </c>
       <c r="H4">
-        <v>0.1758598823287143</v>
+        <v>0.2001147767556268</v>
       </c>
       <c r="I4">
-        <v>0.2086546261886539</v>
+        <v>0.2429796906649342</v>
       </c>
     </row>
   </sheetData>
@@ -1457,28 +1457,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.6670939589762394</v>
+        <v>0.6685046874691534</v>
       </c>
       <c r="C2">
-        <v>0.167150583386917</v>
+        <v>0.1662487656699287</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1625721559832684</v>
+        <v>0.1615763833487698</v>
       </c>
       <c r="F2">
-        <v>0.0005083076040747601</v>
+        <v>0.000605543017454374</v>
       </c>
       <c r="G2">
-        <v>0.002032652518019686</v>
+        <v>0.002030493130115583</v>
       </c>
       <c r="H2">
-        <v>0.404952840145944</v>
+        <v>0.3670692613471973</v>
       </c>
       <c r="I2">
-        <v>0.1855629851075834</v>
+        <v>0.1551405462109196</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1486,28 +1486,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.6671628179731206</v>
+        <v>0.6694716598269435</v>
       </c>
       <c r="C3">
-        <v>0.1665007698710417</v>
+        <v>0.1659142634307919</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1627195625812812</v>
+        <v>0.1620694393817097</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002057398418554315</v>
+        <v>0.002119550559192699</v>
       </c>
       <c r="H3">
-        <v>0.4019143734702108</v>
+        <v>0.3462796063447057</v>
       </c>
       <c r="I3">
-        <v>0.161535271506373</v>
+        <v>0.119910172587952</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1515,28 +1515,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01055092642693977</v>
+        <v>0.01032256077393388</v>
       </c>
       <c r="C4">
-        <v>0.005099574036167615</v>
+        <v>0.005775637522438096</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01157782839478945</v>
+        <v>0.01104552110563169</v>
       </c>
       <c r="F4">
-        <v>0.001028787780614964</v>
+        <v>0.001111858467022838</v>
       </c>
       <c r="G4">
-        <v>0.0005015078349146511</v>
+        <v>0.0004913062624104314</v>
       </c>
       <c r="H4">
-        <v>0.1476283292641702</v>
+        <v>0.1435505879400071</v>
       </c>
       <c r="I4">
-        <v>0.135924099674483</v>
+        <v>0.1356946730785947</v>
       </c>
     </row>
   </sheetData>

--- a/Tutorial/output_mean_median_std.xlsx
+++ b/Tutorial/output_mean_median_std.xlsx
@@ -449,10 +449,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9819690723183886</v>
+        <v>0.9804946939899589</v>
       </c>
       <c r="C2">
-        <v>0.0203114200037585</v>
+        <v>0.02111941343303251</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.65604664760786E-05</v>
+        <v>1.002544042467475E-05</v>
       </c>
       <c r="G2">
-        <v>0.000634746029550483</v>
+        <v>0.0007469541419202988</v>
       </c>
       <c r="H2">
-        <v>0.8418562204076104</v>
+        <v>0.788173738660096</v>
       </c>
       <c r="I2">
-        <v>0.8037827439636921</v>
+        <v>0.6985899269312332</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -478,10 +478,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9823138711697665</v>
+        <v>0.9802013277456616</v>
       </c>
       <c r="C3">
-        <v>0.01984532950318919</v>
+        <v>0.02124921321023904</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003915938008713334</v>
+        <v>0.0005123343433966052</v>
       </c>
       <c r="H3">
-        <v>0.7959003413768201</v>
+        <v>0.746236593610306</v>
       </c>
       <c r="I3">
-        <v>0.6334756028871635</v>
+        <v>0.5569000901919152</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -507,10 +507,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.008378299198132795</v>
+        <v>0.00905034109549803</v>
       </c>
       <c r="C4">
-        <v>0.006974947133695278</v>
+        <v>0.007082435258745194</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001889755112454919</v>
+        <v>7.495979388161009E-05</v>
       </c>
       <c r="G4">
-        <v>0.000714842558578537</v>
+        <v>0.0007563116016396883</v>
       </c>
       <c r="H4">
-        <v>0.3098726491832139</v>
+        <v>0.2795596909893495</v>
       </c>
       <c r="I4">
-        <v>0.5873727894946082</v>
+        <v>0.493126246596423</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9516248001328913</v>
+        <v>0.9505285992633219</v>
       </c>
       <c r="C2">
-        <v>0.04673231691724285</v>
+        <v>0.0481628733105622</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002012417701609907</v>
+        <v>0.001991755136295847</v>
       </c>
       <c r="H2">
-        <v>0.9307776610130292</v>
+        <v>0.9935169875817187</v>
       </c>
       <c r="I2">
-        <v>0.9116665095208737</v>
+        <v>1.029937367168262</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9519454925435745</v>
+        <v>0.9510330568296321</v>
       </c>
       <c r="C3">
-        <v>0.04653132816743898</v>
+        <v>0.04840547095840617</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00207855173494836</v>
+        <v>0.001969193055939746</v>
       </c>
       <c r="H3">
-        <v>0.922559376945658</v>
+        <v>0.9873406510393459</v>
       </c>
       <c r="I3">
-        <v>0.8511174200171766</v>
+        <v>0.9748426250180053</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -633,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01045106470854515</v>
+        <v>0.009685979398901486</v>
       </c>
       <c r="C4">
-        <v>0.004439792999207742</v>
+        <v>0.004094414530504854</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008426471747546166</v>
+        <v>0.0009343104559375776</v>
       </c>
       <c r="H4">
-        <v>0.213956134652745</v>
+        <v>0.2080728372731967</v>
       </c>
       <c r="I4">
-        <v>0.4255033660054562</v>
+        <v>0.4235300205889955</v>
       </c>
     </row>
   </sheetData>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9205156343677</v>
+        <v>0.9210671452578729</v>
       </c>
       <c r="C2">
-        <v>0.0749795012310195</v>
+        <v>0.07484834670542642</v>
       </c>
       <c r="D2">
-        <v>0.0008256942967235543</v>
+        <v>0.0006767272104340685</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0003344402414604482</v>
+        <v>0.0005574211738860795</v>
       </c>
       <c r="G2">
-        <v>0.002316621426950536</v>
+        <v>0.002284457111328019</v>
       </c>
       <c r="H2">
-        <v>0.5918057403371705</v>
+        <v>0.5900929104719689</v>
       </c>
       <c r="I2">
-        <v>0.3935809140298243</v>
+        <v>0.4174617901039237</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -730,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9204192971028167</v>
+        <v>0.9202187954616341</v>
       </c>
       <c r="C3">
-        <v>0.07496475237022467</v>
+        <v>0.07484162395487856</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002204465314685201</v>
+        <v>0.002292001681994532</v>
       </c>
       <c r="H3">
-        <v>0.5657865211691311</v>
+        <v>0.5343034131002478</v>
       </c>
       <c r="I3">
-        <v>0.3201354561577427</v>
+        <v>0.2855029087167756</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -759,28 +759,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.006288956432705745</v>
+        <v>0.006749509782455811</v>
       </c>
       <c r="C4">
-        <v>0.003709440147969786</v>
+        <v>0.003487076506787652</v>
       </c>
       <c r="D4">
-        <v>0.001644980601667336</v>
+        <v>0.001264929448071724</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0008596330024425255</v>
+        <v>0.001400371349777551</v>
       </c>
       <c r="G4">
-        <v>0.001293824333921474</v>
+        <v>0.001160795321446928</v>
       </c>
       <c r="H4">
-        <v>0.2092480035838725</v>
+        <v>0.2644837684096441</v>
       </c>
       <c r="I4">
-        <v>0.275099684901271</v>
+        <v>0.3874999892296863</v>
       </c>
     </row>
   </sheetData>
@@ -827,28 +827,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8924462060816221</v>
+        <v>0.8909467915408646</v>
       </c>
       <c r="C2">
-        <v>0.09748013233326935</v>
+        <v>0.09826981718768593</v>
       </c>
       <c r="D2">
-        <v>0.0003699498510989908</v>
+        <v>0.000407237501591936</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.638670305067734E-05</v>
+        <v>0.0001590283152675463</v>
       </c>
       <c r="G2">
-        <v>0.007040246461558161</v>
+        <v>0.007098195311667276</v>
       </c>
       <c r="H2">
-        <v>0.6187605645799222</v>
+        <v>0.6144091017493711</v>
       </c>
       <c r="I2">
-        <v>0.4102048087354562</v>
+        <v>0.4144231713729987</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8924262615771335</v>
+        <v>0.8910814951483663</v>
       </c>
       <c r="C3">
-        <v>0.09705913340775434</v>
+        <v>0.09796615962870754</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.006981799956318089</v>
+        <v>0.007137929119542013</v>
       </c>
       <c r="H3">
-        <v>0.5959750072087142</v>
+        <v>0.588327194415226</v>
       </c>
       <c r="I3">
-        <v>0.3551891857862702</v>
+        <v>0.3461302622541393</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -885,28 +885,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.00539746133836561</v>
+        <v>0.005360470018542446</v>
       </c>
       <c r="C4">
-        <v>0.004365070582276</v>
+        <v>0.004782075550153608</v>
       </c>
       <c r="D4">
-        <v>0.0009959164792198401</v>
+        <v>0.001117154361664795</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.000395430123832958</v>
+        <v>0.0005385346502163977</v>
       </c>
       <c r="G4">
-        <v>0.0006977256701034496</v>
+        <v>0.0006590618484301129</v>
       </c>
       <c r="H4">
-        <v>0.1661816350092133</v>
+        <v>0.1931258736975551</v>
       </c>
       <c r="I4">
-        <v>0.2200422502091548</v>
+        <v>0.2564776693969236</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8782646649734585</v>
+        <v>0.8768849346620484</v>
       </c>
       <c r="C2">
-        <v>0.1237103688886357</v>
+        <v>0.1236260336093482</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.991873794869044E-05</v>
+        <v>3.030826661315419E-05</v>
       </c>
       <c r="G2">
-        <v>0.001766815897062621</v>
+        <v>0.001574482790173337</v>
       </c>
       <c r="H2">
-        <v>0.7257194875102805</v>
+        <v>0.6757044307535027</v>
       </c>
       <c r="I2">
-        <v>0.5649945958543107</v>
+        <v>0.4967472555568662</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8779486548777997</v>
+        <v>0.8774334371100203</v>
       </c>
       <c r="C3">
-        <v>0.123248391195602</v>
+        <v>0.1239447215296083</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001819455293819089</v>
+        <v>0.001482346584668842</v>
       </c>
       <c r="H3">
-        <v>0.7149564339565446</v>
+        <v>0.6871177980779859</v>
       </c>
       <c r="I3">
-        <v>0.5111632229509708</v>
+        <v>0.4721684669707958</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.006510741305286743</v>
+        <v>0.005839523849284185</v>
       </c>
       <c r="C4">
-        <v>0.005315979054753221</v>
+        <v>0.005777157904842808</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0003346283355274264</v>
+        <v>0.0002059005774978092</v>
       </c>
       <c r="G4">
-        <v>0.001124456982490767</v>
+        <v>0.0009827128755500966</v>
       </c>
       <c r="H4">
-        <v>0.1967560693097645</v>
+        <v>0.2014362014371931</v>
       </c>
       <c r="I4">
-        <v>0.2984680271054279</v>
+        <v>0.2755773972803012</v>
       </c>
     </row>
   </sheetData>
@@ -1079,28 +1079,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8065924928867735</v>
+        <v>0.8086143969765271</v>
       </c>
       <c r="C2">
-        <v>0.1603003902375896</v>
+        <v>0.1602747648171917</v>
       </c>
       <c r="D2">
-        <v>0.001144834860444915</v>
+        <v>0.001124212936524953</v>
       </c>
       <c r="E2">
-        <v>0.02864373254751334</v>
+        <v>0.02722234983353262</v>
       </c>
       <c r="F2">
-        <v>0.0002142553084142405</v>
+        <v>0.0003254417992280992</v>
       </c>
       <c r="G2">
-        <v>0.0018685942230329</v>
+        <v>0.001898146728874546</v>
       </c>
       <c r="H2">
-        <v>0.4976614474581713</v>
+        <v>0.5086298223935186</v>
       </c>
       <c r="I2">
-        <v>0.2881511901105325</v>
+        <v>0.3030365732268881</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1108,28 +1108,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8068323892322613</v>
+        <v>0.8085324920435435</v>
       </c>
       <c r="C3">
-        <v>0.1599465410845224</v>
+        <v>0.1612849298464366</v>
       </c>
       <c r="D3">
-        <v>0.0003608698637721778</v>
+        <v>0.000395382931832164</v>
       </c>
       <c r="E3">
-        <v>0.02782644428264643</v>
+        <v>0.02757040876659583</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00185170939704813</v>
+        <v>0.001921677985998357</v>
       </c>
       <c r="H3">
-        <v>0.4743691495387142</v>
+        <v>0.4857835767625893</v>
       </c>
       <c r="I3">
-        <v>0.2251472995892616</v>
+        <v>0.2359877386722556</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1137,28 +1137,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01256403096464434</v>
+        <v>0.01340511838106049</v>
       </c>
       <c r="C4">
-        <v>0.00570551029716445</v>
+        <v>0.006807665177567592</v>
       </c>
       <c r="D4">
-        <v>0.001455530773753446</v>
+        <v>0.001556251167319811</v>
       </c>
       <c r="E4">
-        <v>0.01296315606759189</v>
+        <v>0.01285893253896804</v>
       </c>
       <c r="F4">
-        <v>0.0009523589537822463</v>
+        <v>0.001184019271675843</v>
       </c>
       <c r="G4">
-        <v>0.0006883675883974569</v>
+        <v>0.0007453497247259198</v>
       </c>
       <c r="H4">
-        <v>0.2022206860912165</v>
+        <v>0.2116130378227949</v>
       </c>
       <c r="I4">
-        <v>0.2193599463322276</v>
+        <v>0.233165306699559</v>
       </c>
     </row>
   </sheetData>
@@ -1205,28 +1205,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7246172017212558</v>
+        <v>0.7225276718166469</v>
       </c>
       <c r="C2">
-        <v>0.1681825925975229</v>
+        <v>0.1683476697025407</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1038645317225501</v>
+        <v>0.1056918531490265</v>
       </c>
       <c r="F2">
-        <v>8.298959423737342E-05</v>
+        <v>0.0001505186093799428</v>
       </c>
       <c r="G2">
-        <v>0.001395718807421038</v>
+        <v>0.001713610567602463</v>
       </c>
       <c r="H2">
-        <v>0.6006253302743889</v>
+        <v>0.6032203325446551</v>
       </c>
       <c r="I2">
-        <v>0.4018766878516814</v>
+        <v>0.4055468143401456</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1234,28 +1234,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7244806331278918</v>
+        <v>0.7209066823849071</v>
       </c>
       <c r="C3">
-        <v>0.168184116824261</v>
+        <v>0.1679986929826447</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.103544343896274</v>
+        <v>0.1039545710296024</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001440403346747757</v>
+        <v>0.001790593826712867</v>
       </c>
       <c r="H3">
-        <v>0.5966662387974655</v>
+        <v>0.5774177910919771</v>
       </c>
       <c r="I3">
-        <v>0.3560292076223339</v>
+        <v>0.3334140659682546</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1263,28 +1263,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.014340590026318</v>
+        <v>0.01461677138865287</v>
       </c>
       <c r="C4">
-        <v>0.006140410225281352</v>
+        <v>0.006153242681700203</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01412871457142256</v>
+        <v>0.01476287531045645</v>
       </c>
       <c r="F4">
-        <v>0.0003254138087629065</v>
+        <v>0.0005586456350725643</v>
       </c>
       <c r="G4">
-        <v>0.0008802098892371085</v>
+        <v>0.0009646668451959455</v>
       </c>
       <c r="H4">
-        <v>0.2038168629448242</v>
+        <v>0.2051657244516217</v>
       </c>
       <c r="I4">
-        <v>0.2596745085424401</v>
+        <v>0.2562449790239522</v>
       </c>
     </row>
   </sheetData>
@@ -1331,28 +1331,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.7077346274716367</v>
+        <v>0.708181185005951</v>
       </c>
       <c r="C2">
-        <v>0.1724737027791001</v>
+        <v>0.1724371912545334</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1103735471902466</v>
+        <v>0.1105563555047107</v>
       </c>
       <c r="F2">
-        <v>0.001410012463597061</v>
+        <v>0.001345672397094279</v>
       </c>
       <c r="G2">
-        <v>0.001137424474911357</v>
+        <v>0.001273726636229345</v>
       </c>
       <c r="H2">
-        <v>0.565889189285373</v>
+        <v>0.5559641398835238</v>
       </c>
       <c r="I2">
-        <v>0.3598760391872515</v>
+        <v>0.351177781255972</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.7078622530653605</v>
+        <v>0.7110669465693369</v>
       </c>
       <c r="C3">
-        <v>0.1723572213170182</v>
+        <v>0.1728993845819258</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1108271353943358</v>
+        <v>0.1101695916822096</v>
       </c>
       <c r="F3">
-        <v>0.0007686994168280294</v>
+        <v>0.0005424366430353156</v>
       </c>
       <c r="G3">
-        <v>0.00100152752030067</v>
+        <v>0.00108145737859404</v>
       </c>
       <c r="H3">
-        <v>0.5143198412328667</v>
+        <v>0.5432614572229895</v>
       </c>
       <c r="I3">
-        <v>0.2645417079212967</v>
+        <v>0.2951336803803157</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01421304953090538</v>
+        <v>0.01360678609333603</v>
       </c>
       <c r="C4">
-        <v>0.005588570773612178</v>
+        <v>0.004975078873867124</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01446132107085068</v>
+        <v>0.01321033080609342</v>
       </c>
       <c r="F4">
-        <v>0.001592425264205111</v>
+        <v>0.001810870680492265</v>
       </c>
       <c r="G4">
-        <v>0.001001999273376107</v>
+        <v>0.001092250740575729</v>
       </c>
       <c r="H4">
-        <v>0.2001147767556268</v>
+        <v>0.2061715878973304</v>
       </c>
       <c r="I4">
-        <v>0.2429796906649342</v>
+        <v>0.2392256851950242</v>
       </c>
     </row>
   </sheetData>
@@ -1457,28 +1457,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.6685046874691534</v>
+        <v>0.6673998614153978</v>
       </c>
       <c r="C2">
-        <v>0.1662487656699287</v>
+        <v>0.1658695130496811</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1615763833487698</v>
+        <v>0.1632668539891629</v>
       </c>
       <c r="F2">
-        <v>0.000605543017454374</v>
+        <v>0.0006022375336771106</v>
       </c>
       <c r="G2">
-        <v>0.002030493130115583</v>
+        <v>0.001981173893357759</v>
       </c>
       <c r="H2">
-        <v>0.3670692613471973</v>
+        <v>0.3792595324618012</v>
       </c>
       <c r="I2">
-        <v>0.1551405462109196</v>
+        <v>0.1621825878764195</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1486,28 +1486,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.6694716598269435</v>
+        <v>0.6681029752839038</v>
       </c>
       <c r="C3">
-        <v>0.1659142634307919</v>
+        <v>0.1657542500933565</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1620694393817097</v>
+        <v>0.1622541690094283</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002119550559192699</v>
+        <v>0.001897682217193756</v>
       </c>
       <c r="H3">
-        <v>0.3462796063447057</v>
+        <v>0.381386846505863</v>
       </c>
       <c r="I3">
-        <v>0.119910172587952</v>
+        <v>0.1454641926694007</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1515,28 +1515,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.01032256077393388</v>
+        <v>0.01217356199633759</v>
       </c>
       <c r="C4">
-        <v>0.005775637522438096</v>
+        <v>0.005193375695966008</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01104552110563169</v>
+        <v>0.01267891167490279</v>
       </c>
       <c r="F4">
-        <v>0.001111858467022838</v>
+        <v>0.001127419942555604</v>
       </c>
       <c r="G4">
-        <v>0.0004913062624104314</v>
+        <v>0.0005055798376363227</v>
       </c>
       <c r="H4">
-        <v>0.1435505879400071</v>
+        <v>0.1361252947544848</v>
       </c>
       <c r="I4">
-        <v>0.1356946730785947</v>
+        <v>0.1045827009849272</v>
       </c>
     </row>
   </sheetData>
